--- a/output/DiagnosticReport/practitioner-dh-base-1.xlsx
+++ b/output/DiagnosticReport/practitioner-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="239">
   <si>
     <t>Path</t>
   </si>
@@ -359,10 +359,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
-  </si>
-  <si>
-    <t>An identifier that applies to this person in this role.</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -594,48 +594,71 @@
     <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:identifier.system}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-sra-1:The qualification shall only have AHPRA Profession details, if qualification is an AHPRA Profession {extension('http://hl7.org.au/fhir/StructureDefinition/ahpraprofession-details').exists() implies code.coding.where(system='http://terminology.hl7.org.au/CodeSystem/v2-0360' and code='AUAHPRAProfession').exists()}inv-sra-2:The qualification shall only have AHPRA Registration details, if qualification is an AHPRA Registration {extension('http://hl7.org.au/fhir/StructureDefinition/ahpraregistration-details').exists() implies code.coding.where(system='http://terminology.hl7.org.au/CodeSystem/v2-0360' and code='AUAHPRARegistration').exists()}inv-dh-prac-02:If present, an issuer shall at least have a reference that conforms to Base Organization, an identifier or a display {issuer.exists() implies issuer.all(($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1')) or $this.identifier.exists() or $this.display.exists())}</t>
+  </si>
+  <si>
+    <t>CER?</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].code</t>
+  </si>
+  <si>
+    <t>./Qualifications</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-dh-prac-02:If present, an issuer shall at least have a reference that conforms to Base Organization, an identifier or a display {issuer.exists() implies issuer.all(($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1')) or $this.identifier.exists() or $this.display.exists())}</t>
-  </si>
-  <si>
-    <t>CER?</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].code</t>
-  </si>
-  <si>
-    <t>./Qualifications</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ahpraProfession-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ahpraprofession-details}
+</t>
+  </si>
+  <si>
+    <t>AHPRA Profession Details</t>
+  </si>
+  <si>
+    <t>ahpraRegistration-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ahpraregistration-details}
+</t>
+  </si>
+  <si>
+    <t>AHPRA Registration Details</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -658,20 +681,11 @@
     <t>Practitioner.qualification.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
 </t>
   </si>
   <si>
-    <t>An identifier for this qualification for the practitioner</t>
-  </si>
-  <si>
-    <t>An identifier that applies to this person's qualification in this role.</t>
-  </si>
-  <si>
     <t>Often, specific identities are assigned for the qualification.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code</t>
@@ -687,13 +701,7 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Specific qualification the practitioner has to provide a service.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>http://hl7.org.au/fhir/ValueSet/au-hl7v2-0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -737,202 +745,22 @@
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
   </si>
   <si>
-    <t>ahpraRegistration</t>
-  </si>
-  <si>
-    <t>Australian Health Practitioner Regulation Agency (AHPRA) qualification details</t>
-  </si>
-  <si>
-    <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-ahpraregistrationnumber}
-</t>
-  </si>
-  <si>
-    <t>AHPRA Registration Number</t>
-  </si>
-  <si>
-    <t>Australian Health Practitioner Regulation Authority (AHPRA) registration number assigned to a practitioner.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-ahpra-0:AHPRA identifier shall be 3 uppercase letters, followed by 10 digits {value.matches('^[A-Z]{3}[0-9]{10}$')}</t>
-  </si>
-  <si>
-    <t>AHPRA codings</t>
-  </si>
-  <si>
-    <t>AHPRA registration type, sub-type, profession, division and specialty.</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.code.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.code.text</t>
-  </si>
-  <si>
-    <t>AHPRA Registration Role</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+    <t>Practitioner.communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+  </si>
+  <si>
+    <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
     <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>AHPRA</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Practitioner.communication</t>
-  </si>
-  <si>
-    <t>A language the practitioner can use in patient communication</t>
-  </si>
-  <si>
-    <t>A language the practitioner can use in patient communication.</t>
-  </si>
-  <si>
-    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
-  </si>
-  <si>
-    <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/common-languages-australia-2</t>
@@ -1093,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1103,7 +931,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1125,11 +953,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.73828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.23046875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.171875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3157,7 +2985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>178</v>
       </c>
@@ -3227,14 +3055,16 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>178</v>
@@ -3249,16 +3079,16 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3266,7 +3096,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3292,10 +3122,10 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3346,7 +3176,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3364,7 +3194,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3375,11 +3205,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3401,14 +3231,12 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3445,19 +3273,17 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3475,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3486,43 +3312,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3570,7 +3394,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3579,7 +3403,7 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>101</v>
@@ -3588,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3597,11 +3421,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3610,10 +3436,10 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -3622,18 +3448,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3681,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3690,16 +3514,16 @@
         <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3708,41 +3532,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3766,13 +3594,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3793,25 +3621,25 @@
         <v>207</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3819,7 +3647,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3830,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>51</v>
@@ -3842,17 +3670,17 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3901,28 +3729,28 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3930,7 +3758,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3938,7 +3766,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -3953,13 +3781,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3986,13 +3814,11 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4010,10 +3836,10 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4028,22 +3854,20 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4052,10 +3876,10 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4064,16 +3888,18 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4121,13 +3947,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4136,21 +3962,21 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4164,7 +3990,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -4173,13 +3999,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4230,7 +4056,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4242,13 +4068,13 @@
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4257,13 +4083,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4273,7 +4099,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -4282,18 +4108,20 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4317,13 +4145,11 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4341,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4353,1797 +4179,23 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="X45" s="2"/>
-      <c r="Y45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AM29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6153,7 +4205,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/practitioner-dh-base-1.xlsx
+++ b/output/DiagnosticReport/practitioner-dh-base-1.xlsx
@@ -595,7 +595,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-sra-1:The qualification shall only have AHPRA Profession details, if qualification is an AHPRA Profession {extension('http://hl7.org.au/fhir/StructureDefinition/ahpraprofession-details').exists() implies code.coding.where(system='http://terminology.hl7.org.au/CodeSystem/v2-0360' and code='AUAHPRAProfession').exists()}inv-sra-2:The qualification shall only have AHPRA Registration details, if qualification is an AHPRA Registration {extension('http://hl7.org.au/fhir/StructureDefinition/ahpraregistration-details').exists() implies code.coding.where(system='http://terminology.hl7.org.au/CodeSystem/v2-0360' and code='AUAHPRARegistration').exists()}inv-dh-prac-02:If present, an issuer shall at least have a reference that conforms to Base Organization, an identifier or a display {issuer.exists() implies issuer.all(($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1')) or $this.identifier.exists() or $this.display.exists())}</t>
+inv-sra-1:The qualification shall only have AHPRA Profession details, if qualification is an AHPRA Profession {extension('http://hl7.org.au/fhir/StructureDefinition/ahpraprofession-details').exists() implies code.coding.where(system='http://terminology.hl7.org.au/CodeSystem/v2-0360' and code='AUAHPRAProfession').exists()}inv-sra-2:The qualification shall only have AHPRA Registration details, if qualification is an AHPRA Registration {extension('http://hl7.org.au/fhir/StructureDefinition/ahpraregistration-details').exists() implies code.coding.where(system='http://terminology.hl7.org.au/CodeSystem/v2-0360' and code='AUAHPRARegistration').exists()}inv-dh-prac-02:If present, an issuer shall at least have a reference that conforms to Base Organization, an identifier or a display {issuer.exists() implies issuer.all(($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1')) or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>CER?</t>
